--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:22:57+00:00</t>
+    <t>2025-11-14T07:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:24:46+00:00</t>
+    <t>2025-11-14T07:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:30:49+00:00</t>
+    <t>2025-11-14T08:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="685">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T08:50:36+00:00</t>
+    <t>2025-11-18T17:20:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,7 +121,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/oxygensat</t>
+    <t>http://hl7.org/fhir/StructureDefinition/oxygensat|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -491,6 +491,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-saturation-oxygen|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Observation.meta.security</t>
   </si>
   <si>
@@ -746,7 +749,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-medication-administration-inhaled-oxygen)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-medication-administration-inhaled-oxygen|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1258,7 +1261,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1312,7 +1315,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1407,7 +1410,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|RelatedPerson|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1|RelatedPerson|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|PractitionerRole|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1733,7 +1736,7 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-spo2-body-location</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-spo2-body-location|2.2.0-ballot</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -2498,7 +2501,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="233.41796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2513,7 +2516,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.95703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.46875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3785,7 +3788,7 @@
         <v>84</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>84</v>
@@ -3859,10 +3862,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3885,16 +3888,16 @@
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3920,13 +3923,13 @@
         <v>84</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>84</v>
@@ -3944,7 +3947,7 @@
         <v>84</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
@@ -3979,10 +3982,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -4005,16 +4008,16 @@
         <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4040,13 +4043,13 @@
         <v>84</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>84</v>
@@ -4064,7 +4067,7 @@
         <v>84</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -4099,10 +4102,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4128,13 +4131,13 @@
         <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4184,7 +4187,7 @@
         <v>84</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -4219,10 +4222,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4245,16 +4248,16 @@
         <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4280,13 +4283,13 @@
         <v>84</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>84</v>
@@ -4304,7 +4307,7 @@
         <v>84</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
@@ -4339,14 +4342,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4365,16 +4368,16 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4424,7 +4427,7 @@
         <v>84</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
@@ -4448,7 +4451,7 @@
         <v>84</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>84</v>
@@ -4459,14 +4462,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4485,16 +4488,16 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4544,7 +4547,7 @@
         <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -4568,7 +4571,7 @@
         <v>84</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>84</v>
@@ -4579,10 +4582,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4608,10 +4611,10 @@
         <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4660,7 +4663,7 @@
         <v>122</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -4695,13 +4698,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>84</v>
@@ -4723,13 +4726,13 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4780,7 +4783,7 @@
         <v>84</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -4815,10 +4818,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4844,16 +4847,16 @@
         <v>116</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>119</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>84</v>
@@ -4902,7 +4905,7 @@
         <v>84</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -4926,7 +4929,7 @@
         <v>84</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>84</v>
@@ -4937,10 +4940,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4963,17 +4966,17 @@
         <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>84</v>
@@ -5022,7 +5025,7 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -5037,19 +5040,19 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>84</v>
@@ -5057,14 +5060,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5083,17 +5086,17 @@
         <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>84</v>
@@ -5142,7 +5145,7 @@
         <v>84</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
@@ -5157,16 +5160,16 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>84</v>
@@ -5177,14 +5180,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5203,16 +5206,16 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5262,7 +5265,7 @@
         <v>84</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -5277,16 +5280,16 @@
         <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>84</v>
@@ -5297,10 +5300,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5415,10 +5418,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5535,10 +5538,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5564,13 +5567,13 @@
         <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5620,7 +5623,7 @@
         <v>84</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -5629,7 +5632,7 @@
         <v>95</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>107</v>
@@ -5644,7 +5647,7 @@
         <v>84</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>84</v>
@@ -5655,10 +5658,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5684,13 +5687,13 @@
         <v>137</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5716,13 +5719,13 @@
         <v>84</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>84</v>
@@ -5740,7 +5743,7 @@
         <v>84</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -5764,7 +5767,7 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>84</v>
@@ -5775,10 +5778,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5801,16 +5804,16 @@
         <v>96</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5860,7 +5863,7 @@
         <v>84</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -5884,7 +5887,7 @@
         <v>84</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>84</v>
@@ -5895,10 +5898,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5924,13 +5927,13 @@
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5980,7 +5983,7 @@
         <v>84</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -6004,7 +6007,7 @@
         <v>84</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>84</v>
@@ -6015,10 +6018,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6041,19 +6044,19 @@
         <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>84</v>
@@ -6078,11 +6081,11 @@
         <v>84</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>84</v>
@@ -6100,7 +6103,7 @@
         <v>84</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>95</v>
@@ -6115,19 +6118,19 @@
         <v>107</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>84</v>
@@ -6135,10 +6138,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6161,19 +6164,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>84</v>
@@ -6198,19 +6201,19 @@
         <v>84</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
@@ -6220,7 +6223,7 @@
         <v>122</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
@@ -6244,10 +6247,10 @@
         <v>84</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>84</v>
@@ -6255,13 +6258,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>84</v>
@@ -6283,19 +6286,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>84</v>
@@ -6320,13 +6323,13 @@
         <v>84</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>84</v>
@@ -6344,7 +6347,7 @@
         <v>84</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -6368,10 +6371,10 @@
         <v>84</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>84</v>
@@ -6379,10 +6382,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6497,10 +6500,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6617,10 +6620,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6643,19 +6646,19 @@
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>84</v>
@@ -6704,7 +6707,7 @@
         <v>84</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6725,10 +6728,10 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>84</v>
@@ -6739,10 +6742,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6857,10 +6860,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6977,10 +6980,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7006,23 +7009,23 @@
         <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>84</v>
@@ -7064,7 +7067,7 @@
         <v>84</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -7085,10 +7088,10 @@
         <v>84</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>84</v>
@@ -7099,10 +7102,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7128,13 +7131,13 @@
         <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7184,7 +7187,7 @@
         <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -7205,10 +7208,10 @@
         <v>84</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>84</v>
@@ -7219,10 +7222,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7245,24 +7248,24 @@
         <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>84</v>
@@ -7304,7 +7307,7 @@
         <v>84</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -7325,10 +7328,10 @@
         <v>84</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>84</v>
@@ -7339,10 +7342,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7368,14 +7371,14 @@
         <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>84</v>
@@ -7424,7 +7427,7 @@
         <v>84</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -7445,10 +7448,10 @@
         <v>84</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>84</v>
@@ -7459,10 +7462,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7485,19 +7488,19 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>84</v>
@@ -7546,7 +7549,7 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7567,10 +7570,10 @@
         <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>84</v>
@@ -7581,10 +7584,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7610,16 +7613,16 @@
         <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>84</v>
@@ -7668,7 +7671,7 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7689,10 +7692,10 @@
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>84</v>
@@ -7703,14 +7706,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7729,19 +7732,19 @@
         <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>84</v>
@@ -7766,13 +7769,13 @@
         <v>84</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>84</v>
@@ -7790,7 +7793,7 @@
         <v>84</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>95</v>
@@ -7805,30 +7808,30 @@
         <v>107</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7943,10 +7946,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8063,10 +8066,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8089,19 +8092,19 @@
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>84</v>
@@ -8138,7 +8141,7 @@
         <v>84</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
@@ -8148,7 +8151,7 @@
         <v>122</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8169,10 +8172,10 @@
         <v>84</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>84</v>
@@ -8183,13 +8186,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>84</v>
@@ -8211,19 +8214,19 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>84</v>
@@ -8272,7 +8275,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -8293,10 +8296,10 @@
         <v>84</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>84</v>
@@ -8307,10 +8310,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8425,10 +8428,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8545,10 +8548,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8574,23 +8577,23 @@
         <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>84</v>
@@ -8632,7 +8635,7 @@
         <v>84</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8653,10 +8656,10 @@
         <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>84</v>
@@ -8667,10 +8670,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8696,13 +8699,13 @@
         <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8752,7 +8755,7 @@
         <v>84</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8773,10 +8776,10 @@
         <v>84</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>84</v>
@@ -8787,10 +8790,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8813,24 +8816,24 @@
         <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>84</v>
@@ -8872,7 +8875,7 @@
         <v>84</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8893,10 +8896,10 @@
         <v>84</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>84</v>
@@ -8907,10 +8910,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8936,14 +8939,14 @@
         <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>84</v>
@@ -8992,7 +8995,7 @@
         <v>84</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -9013,10 +9016,10 @@
         <v>84</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>84</v>
@@ -9027,10 +9030,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9053,19 +9056,19 @@
         <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>84</v>
@@ -9114,7 +9117,7 @@
         <v>84</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -9135,10 +9138,10 @@
         <v>84</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>84</v>
@@ -9149,10 +9152,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9178,16 +9181,16 @@
         <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>84</v>
@@ -9236,7 +9239,7 @@
         <v>84</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
@@ -9257,10 +9260,10 @@
         <v>84</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>84</v>
@@ -9271,10 +9274,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9297,19 +9300,19 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>84</v>
@@ -9358,7 +9361,7 @@
         <v>84</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9373,19 +9376,19 @@
         <v>107</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>84</v>
@@ -9393,10 +9396,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9419,16 +9422,16 @@
         <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9478,7 +9481,7 @@
         <v>84</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9499,13 +9502,13 @@
         <v>84</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>84</v>
@@ -9513,14 +9516,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9539,19 +9542,19 @@
         <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>84</v>
@@ -9600,7 +9603,7 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9615,19 +9618,19 @@
         <v>107</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>84</v>
@@ -9635,14 +9638,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9661,19 +9664,19 @@
         <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>84</v>
@@ -9722,7 +9725,7 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -9731,25 +9734,25 @@
         <v>95</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>84</v>
@@ -9757,10 +9760,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9786,13 +9789,13 @@
         <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9842,7 +9845,7 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -9863,13 +9866,13 @@
         <v>84</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>84</v>
@@ -9877,10 +9880,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9903,17 +9906,17 @@
         <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>84</v>
@@ -9962,7 +9965,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -9977,19 +9980,19 @@
         <v>107</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>84</v>
@@ -9997,10 +10000,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10023,19 +10026,19 @@
         <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>84</v>
@@ -10072,17 +10075,17 @@
         <v>84</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10091,7 +10094,7 @@
         <v>95</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>107</v>
@@ -10100,30 +10103,30 @@
         <v>84</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>84</v>
@@ -10145,19 +10148,19 @@
         <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>84</v>
@@ -10206,7 +10209,7 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10215,7 +10218,7 @@
         <v>95</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>107</v>
@@ -10224,27 +10227,27 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10359,10 +10362,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10479,10 +10482,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10505,19 +10508,19 @@
         <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>84</v>
@@ -10566,7 +10569,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10587,10 +10590,10 @@
         <v>84</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>84</v>
@@ -10601,10 +10604,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10627,23 +10630,23 @@
         <v>96</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q68" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>84</v>
@@ -10664,13 +10667,13 @@
         <v>84</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>84</v>
@@ -10688,7 +10691,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -10709,10 +10712,10 @@
         <v>84</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>84</v>
@@ -10723,10 +10726,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10752,14 +10755,14 @@
         <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>84</v>
@@ -10808,7 +10811,7 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -10829,10 +10832,10 @@
         <v>84</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>84</v>
@@ -10843,10 +10846,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10872,21 +10875,21 @@
         <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>84</v>
@@ -10928,7 +10931,7 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -10937,7 +10940,7 @@
         <v>95</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>107</v>
@@ -10949,10 +10952,10 @@
         <v>84</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>84</v>
@@ -10963,10 +10966,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10989,26 +10992,26 @@
         <v>96</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>84</v>
@@ -11050,7 +11053,7 @@
         <v>84</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -11071,10 +11074,10 @@
         <v>84</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>84</v>
@@ -11085,10 +11088,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11111,19 +11114,19 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>84</v>
@@ -11148,13 +11151,13 @@
         <v>84</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>84</v>
@@ -11172,7 +11175,7 @@
         <v>84</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11181,7 +11184,7 @@
         <v>95</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>107</v>
@@ -11193,10 +11196,10 @@
         <v>84</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>84</v>
@@ -11207,14 +11210,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11233,19 +11236,19 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>84</v>
@@ -11270,13 +11273,13 @@
         <v>84</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>84</v>
@@ -11294,7 +11297,7 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11312,27 +11315,27 @@
         <v>84</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11355,19 +11358,19 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>84</v>
@@ -11416,7 +11419,7 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11437,10 +11440,10 @@
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
@@ -11451,10 +11454,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11477,16 +11480,16 @@
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11512,11 +11515,11 @@
         <v>84</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>84</v>
@@ -11534,7 +11537,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11552,27 +11555,27 @@
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11595,19 +11598,19 @@
         <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>84</v>
@@ -11632,13 +11635,13 @@
         <v>84</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>84</v>
@@ -11656,7 +11659,7 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -11677,10 +11680,10 @@
         <v>84</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>84</v>
@@ -11691,10 +11694,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11717,16 +11720,16 @@
         <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11776,7 +11779,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -11794,27 +11797,27 @@
         <v>84</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11837,16 +11840,16 @@
         <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11896,7 +11899,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -11914,27 +11917,27 @@
         <v>84</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11957,19 +11960,19 @@
         <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>84</v>
@@ -12018,7 +12021,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12030,7 +12033,7 @@
         <v>84</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>84</v>
@@ -12039,10 +12042,10 @@
         <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
@@ -12053,10 +12056,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12171,10 +12174,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12291,14 +12294,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12320,16 +12323,16 @@
         <v>116</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>119</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12378,7 +12381,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12402,7 +12405,7 @@
         <v>84</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
@@ -12413,10 +12416,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12439,13 +12442,13 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12496,7 +12499,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12505,7 +12508,7 @@
         <v>95</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>107</v>
@@ -12517,10 +12520,10 @@
         <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -12531,10 +12534,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12557,13 +12560,13 @@
         <v>84</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12614,7 +12617,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12623,7 +12626,7 @@
         <v>95</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>107</v>
@@ -12635,10 +12638,10 @@
         <v>84</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
@@ -12649,10 +12652,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12675,19 +12678,19 @@
         <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -12712,13 +12715,13 @@
         <v>84</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -12736,7 +12739,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12754,13 +12757,13 @@
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
@@ -12771,10 +12774,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12797,19 +12800,19 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>84</v>
@@ -12834,13 +12837,13 @@
         <v>84</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>84</v>
@@ -12858,7 +12861,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12876,13 +12879,13 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
@@ -12893,10 +12896,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12919,17 +12922,17 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>84</v>
@@ -12978,7 +12981,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -13002,7 +13005,7 @@
         <v>84</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
@@ -13013,10 +13016,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13042,10 +13045,10 @@
         <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13096,7 +13099,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13117,10 +13120,10 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13131,10 +13134,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13157,16 +13160,16 @@
         <v>96</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13216,7 +13219,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -13237,10 +13240,10 @@
         <v>84</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>84</v>
@@ -13251,10 +13254,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13277,16 +13280,16 @@
         <v>96</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13336,7 +13339,7 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -13357,10 +13360,10 @@
         <v>84</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>84</v>
@@ -13371,10 +13374,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13397,19 +13400,19 @@
         <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>84</v>
@@ -13458,7 +13461,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13470,7 +13473,7 @@
         <v>84</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>84</v>
@@ -13479,10 +13482,10 @@
         <v>84</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>84</v>
@@ -13493,10 +13496,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13611,10 +13614,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13731,14 +13734,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13760,16 +13763,16 @@
         <v>116</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>119</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13818,7 +13821,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -13842,7 +13845,7 @@
         <v>84</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>84</v>
@@ -13853,10 +13856,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13879,19 +13882,19 @@
         <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -13916,13 +13919,13 @@
         <v>84</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
@@ -13940,7 +13943,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>95</v>
@@ -13958,16 +13961,16 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>84</v>
@@ -13975,10 +13978,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14001,19 +14004,19 @@
         <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -14038,13 +14041,13 @@
         <v>84</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>84</v>
@@ -14062,7 +14065,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14071,7 +14074,7 @@
         <v>95</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>107</v>
@@ -14080,27 +14083,27 @@
         <v>84</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14123,19 +14126,19 @@
         <v>84</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>84</v>
@@ -14160,13 +14163,13 @@
         <v>84</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>84</v>
@@ -14184,7 +14187,7 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14193,7 +14196,7 @@
         <v>95</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>107</v>
@@ -14205,10 +14208,10 @@
         <v>84</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>84</v>
@@ -14219,14 +14222,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14245,19 +14248,19 @@
         <v>84</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>84</v>
@@ -14282,13 +14285,13 @@
         <v>84</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>84</v>
@@ -14306,7 +14309,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14324,27 +14327,27 @@
         <v>84</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14370,16 +14373,16 @@
         <v>85</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>84</v>
@@ -14428,7 +14431,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14449,10 +14452,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:20:39+00:00</t>
+    <t>2025-12-05T08:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:27:25+00:00</t>
+    <t>2025-12-05T08:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:30:09+00:00</t>
+    <t>2025-12-05T08:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:32:19+00:00</t>
+    <t>2025-12-05T09:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:13:38+00:00</t>
+    <t>2025-12-05T09:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
